--- a/changedetectionio/tests/import/spreadsheet.xlsx
+++ b/changedetectionio/tests/import/spreadsheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -78,6 +78,15 @@
   <si>
     <t xml:space="preserve">/html[1]/body[1]/nav[1]/div[1]/div[2]/ul[1]/li[2]/a[1]/span[1]|/html[1]/body[1]/nav[1]/div[2]/div[2]/ul[1]/li[3]/a[1]/span[1]|/html[1]/body[1]/div[3]/div[1]/div[1]/body[1]/div[2]/div[1]/div[1]/section[1]/div[1]/div[1]|/html[1]/body[1]/div[3]/div[1]/div[2]/ul[2]/li[3]/a[1]</t>
   </si>
+  <si>
+    <t xml:space="preserve">JS website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00123f47-76a9-4ab2-84a7-a68abc176b72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cooeeelnews.com/?pid=foobarxxx</t>
+  </si>
 </sst>
 </file>
 
@@ -88,7 +97,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="d/mm/yyyy\ h:mm"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -134,6 +143,12 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -177,7 +192,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -202,6 +217,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -222,13 +245,13 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="53.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="70.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.54"/>
@@ -323,7 +346,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="b">
+      <c r="G3" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -338,16 +361,35 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>6</v>
+      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="F4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>44666.3955208333</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>45205.2427546296</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
@@ -11262,6 +11304,7 @@
     <hyperlink ref="C2" r:id="rId2" display="https://somesite-abc.com/"/>
     <hyperlink ref="B3" r:id="rId3" display="00113f47-76a9-4ab2-84a7-a68abc176b72"/>
     <hyperlink ref="C3" r:id="rId4" display="https://www.coolnews.com/?pid=foobar"/>
+    <hyperlink ref="C4" r:id="rId5" display="https://www.cooeeelnews"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
